--- a/Finflux Automation Excels/Client/3132-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-CASH-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/3132-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-CASH-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -31,9 +36,6 @@
     <t>Paid Date</t>
   </si>
   <si>
-    <t>heading</t>
-  </si>
-  <si>
     <t>Principal Due</t>
   </si>
   <si>
@@ -67,9 +69,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -113,13 +112,19 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>Accrual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +134,21 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -164,60 +184,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,6 +208,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,6 +221,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +305,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +357,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,7 +553,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,19 +563,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11">
-        <v>42036</v>
+      <c r="B2" s="8">
+        <v>42050</v>
       </c>
     </row>
   </sheetData>
@@ -575,115 +588,114 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>5000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>836.76</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>4163.24</v>
       </c>
-      <c r="F2" s="6">
-        <v>849.4</v>
+      <c r="F2" s="3">
+        <v>845.55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>179.66</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="3">
+        <v>183.63</v>
+      </c>
+      <c r="B3" s="3">
         <v>50.96</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>128.69999999999999</v>
-      </c>
-      <c r="F3" s="6">
-        <v>38.32</v>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>132.66999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>42.17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="3">
         <v>8.8800000000000008</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>8.8800000000000008</v>
       </c>
     </row>
@@ -697,374 +709,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="13.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="4">
+        <v>42050</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3">
+        <v>836.76</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4163.24</v>
+      </c>
+      <c r="H3" s="3">
+        <v>50.96</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>845.55</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3317.69</v>
+      </c>
+      <c r="H4" s="3">
+        <v>42.17</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="K4" s="3">
+        <v>896.6</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
+        <v>896.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>845.29</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2472.4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>42.43</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42125</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>863.33</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1609.07</v>
+      </c>
+      <c r="H6" s="3">
+        <v>24.39</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="7">
-        <v>42036</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="6">
-        <v>836.76</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4163.24</v>
-      </c>
-      <c r="H3" s="6">
-        <v>50.96</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="K3" s="6">
-        <v>896.6</v>
-      </c>
-      <c r="L3" s="6">
-        <v>896.6</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>849.4</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3313.84</v>
-      </c>
-      <c r="H4" s="6">
-        <v>38.32</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="K4" s="6">
-        <v>896.6</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>896.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>31</v>
-      </c>
-      <c r="C5" s="7">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>845.29</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2468.5500000000002</v>
-      </c>
-      <c r="H5" s="6">
-        <v>42.43</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="C7" s="4">
+        <v>42156</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>871.32</v>
+      </c>
+      <c r="G7" s="3">
+        <v>737.75</v>
+      </c>
+      <c r="H7" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>887.72</v>
       </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>42125</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>863.37</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1605.18</v>
-      </c>
-      <c r="H6" s="6">
-        <v>24.35</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>31</v>
-      </c>
-      <c r="C7" s="7">
-        <v>42156</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>871.36</v>
-      </c>
-      <c r="G7" s="6">
-        <v>733.82</v>
-      </c>
-      <c r="H7" s="6">
-        <v>16.36</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>42186</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>733.82</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>7.24</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>741.06</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>741.06</v>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>737.75</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>745.03</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
+        <v>745.03</v>
       </c>
     </row>
   </sheetData>
@@ -1075,126 +1089,162 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="4">
+        <v>42050</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>3189</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="6">
-        <v>896.6</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="3">
         <v>836.76</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>50.96</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
         <v>4163.24</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>3172</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="A3" s="3">
+        <v>135</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
         <v>42005</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3">
+        <v>183.63</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>183.63</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>132</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42005</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
         <v>5000</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <v>5000</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Finflux Automation Excels/Client/3132-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-CASH-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/3132-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-CASH-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -36,6 +31,9 @@
     <t>Paid Date</t>
   </si>
   <si>
+    <t>heading</t>
+  </si>
+  <si>
     <t>Principal Due</t>
   </si>
   <si>
@@ -69,6 +67,9 @@
     <t>Disbursement</t>
   </si>
   <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
     <t>Original</t>
   </si>
   <si>
@@ -112,19 +113,13 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
-  </si>
-  <si>
-    <t>TransactionType</t>
-  </si>
-  <si>
-    <t>Accrual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,21 +129,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -184,12 +164,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,10 +236,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -221,9 +245,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,26 +326,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,23 +361,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,7 +540,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,19 +550,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="8">
-        <v>42050</v>
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11">
+        <v>42036</v>
       </c>
     </row>
   </sheetData>
@@ -588,114 +575,115 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>5000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>836.76</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>4163.24</v>
       </c>
-      <c r="F2" s="3">
-        <v>845.55</v>
+      <c r="F2" s="6">
+        <v>849.4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>183.63</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="6">
+        <v>179.66</v>
+      </c>
+      <c r="B3" s="6">
         <v>50.96</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>132.66999999999999</v>
-      </c>
-      <c r="F3" s="3">
-        <v>42.17</v>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>38.32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="B5" s="6">
         <v>8.8800000000000008</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>8.8800000000000008</v>
       </c>
     </row>
@@ -709,376 +697,374 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="13.85546875" style="9"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7">
         <v>42005</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8">
         <v>5000</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>31</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="4">
-        <v>42050</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3">
+      <c r="D3" s="7">
+        <v>42036</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6">
         <v>836.76</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="9">
         <v>4163.24</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>50.96</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="K3" s="6">
+        <v>896.6</v>
+      </c>
+      <c r="L3" s="6">
+        <v>896.6</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>849.4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3313.84</v>
+      </c>
+      <c r="H4" s="6">
+        <v>38.32</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="K4" s="6">
+        <v>896.6</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>896.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>845.29</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2468.5500000000002</v>
+      </c>
+      <c r="H5" s="6">
+        <v>42.43</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>887.72</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42125</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>863.37</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1605.18</v>
+      </c>
+      <c r="H6" s="6">
+        <v>24.35</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
         <v>887.72</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
-        <v>845.55</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3317.69</v>
-      </c>
-      <c r="H4" s="3">
-        <v>42.17</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="K4" s="3">
-        <v>896.6</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3">
-        <v>896.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
         <v>31</v>
       </c>
-      <c r="C5" s="4">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>845.29</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2472.4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>42.43</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="C7" s="7">
+        <v>42156</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>871.36</v>
+      </c>
+      <c r="G7" s="6">
+        <v>733.82</v>
+      </c>
+      <c r="H7" s="6">
+        <v>16.36</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>887.72</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3">
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>30</v>
       </c>
-      <c r="C6" s="4">
-        <v>42125</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>863.33</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1609.07</v>
-      </c>
-      <c r="H6" s="3">
-        <v>24.39</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4">
-        <v>42156</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <v>871.32</v>
-      </c>
-      <c r="G7" s="3">
-        <v>737.75</v>
-      </c>
-      <c r="H7" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>42186</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>737.75</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>7.28</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>745.03</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>745.03</v>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>733.82</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>7.24</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>741.06</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>741.06</v>
       </c>
     </row>
   </sheetData>
@@ -1089,162 +1075,126 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>134</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="A2" s="6">
+        <v>3189</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6">
+        <v>896.6</v>
+      </c>
+      <c r="F2" s="6">
         <v>836.76</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>50.96</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="J2" s="9">
         <v>4163.24</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>135</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="6">
+        <v>3172</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7">
         <v>42005</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3">
-        <v>183.63</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>183.63</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>132</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4">
-        <v>42005</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8">
         <v>5000</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <v>5000</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
